--- a/CaseStudy/Export/Correlation_selectVAR_model1.xlsx
+++ b/CaseStudy/Export/Correlation_selectVAR_model1.xlsx
@@ -500,34 +500,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1559660351560297</v>
+        <v>-0.1659442236438834</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03098417289222782</v>
+        <v>0.03178008536421172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1187262536551963</v>
+        <v>0.133243164118091</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.149280744094289</v>
+        <v>-0.1588929993566435</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09550922000396944</v>
+        <v>-0.09482163926037128</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.05829781582911565</v>
+        <v>-0.06471908231036332</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2266618923461539</v>
+        <v>0.2404141307388282</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1518445271379984</v>
+        <v>-0.1647399506653904</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.05402322780444221</v>
+        <v>-0.050870085872</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08131909814433705</v>
+        <v>0.08153572737599171</v>
       </c>
     </row>
     <row r="3">
@@ -537,37 +537,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1559660351560297</v>
+        <v>-0.1659442236438834</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1494342928057471</v>
+        <v>-0.1647710451171673</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06168200154372071</v>
+        <v>0.06749129753345906</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07993772743264251</v>
+        <v>0.08677317706123716</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05328939267898505</v>
+        <v>-0.06399826795457395</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1391655863608457</v>
+        <v>-0.142484839532165</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09818251549562126</v>
+        <v>-0.1108649630770487</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4989228884990197</v>
+        <v>0.516338991603269</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1116778017247707</v>
+        <v>0.1230084554100962</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.1410817724465155</v>
+        <v>-0.1495979406489653</v>
       </c>
     </row>
     <row r="4">
@@ -577,37 +577,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03098417289222782</v>
+        <v>0.03178008536421172</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1494342928057471</v>
+        <v>-0.1647710451171673</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0995312077728874</v>
+        <v>-0.1025703582654419</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.08533976733867699</v>
+        <v>-0.08882547027173551</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1334985400358711</v>
+        <v>0.1433809049780108</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2070699479970442</v>
+        <v>0.2116712719142603</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04223014973973765</v>
+        <v>0.04686897793799323</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1391881796606599</v>
+        <v>-0.1563366399626702</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2623308128500093</v>
+        <v>-0.2779357062449836</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1685685125777832</v>
+        <v>0.1849532431283435</v>
       </c>
     </row>
     <row r="5">
@@ -617,37 +617,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1187262536551963</v>
+        <v>0.133243164118091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06168200154372071</v>
+        <v>0.06749129753345906</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0995312077728874</v>
+        <v>-0.1025703582654419</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05497243604475093</v>
+        <v>-0.04955528768131017</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08382916549752255</v>
+        <v>-0.08493555240859314</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2373779419912441</v>
+        <v>-0.2386848625694477</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03524379957931763</v>
+        <v>0.04036997884390937</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04334149793730307</v>
+        <v>0.04955333063480253</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002215999330083958</v>
+        <v>0.01072743307583247</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.01553511874992223</v>
+        <v>-0.02058144507498665</v>
       </c>
     </row>
     <row r="6">
@@ -657,37 +657,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.149280744094289</v>
+        <v>-0.1588929993566435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07993772743264251</v>
+        <v>0.08677317706123716</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.08533976733867699</v>
+        <v>-0.08882547027173551</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.05497243604475093</v>
+        <v>-0.04955528768131017</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02554563720862481</v>
+        <v>-0.01851781681925864</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007451544209719762</v>
+        <v>-0.0002792881348068071</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1872548741485933</v>
+        <v>-0.1919958065818631</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09177512660001441</v>
+        <v>0.09624459835032532</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04359086573556677</v>
+        <v>0.03807358625458564</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.02693123745069725</v>
+        <v>-0.0283806244469918</v>
       </c>
     </row>
     <row r="7">
@@ -697,37 +697,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.09550922000396944</v>
+        <v>-0.09482163926037128</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.05328939267898505</v>
+        <v>-0.06399826795457395</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1334985400358711</v>
+        <v>0.1433809049780108</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.08382916549752255</v>
+        <v>-0.08493555240859314</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02554563720862481</v>
+        <v>-0.01851781681925864</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1560227539443639</v>
+        <v>0.1592280812505129</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02461354787274885</v>
+        <v>0.02384017132183621</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.03795736023478147</v>
+        <v>-0.05220627135387298</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.150143949375462</v>
+        <v>-0.1584801244511929</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1338084643563329</v>
+        <v>0.1466866568400325</v>
       </c>
     </row>
     <row r="8">
@@ -737,37 +737,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.05829781582911565</v>
+        <v>-0.06471908231036332</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1391655863608457</v>
+        <v>-0.142484839532165</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2070699479970442</v>
+        <v>0.2116712719142603</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2373779419912441</v>
+        <v>-0.2386848625694477</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0007451544209719762</v>
+        <v>-0.0002792881348068071</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1560227539443639</v>
+        <v>0.1592280812505129</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04719533452593867</v>
+        <v>0.04922211831063138</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.09916551992775477</v>
+        <v>-0.103698342794782</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1749774143829428</v>
+        <v>-0.179934843894821</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2701107199482542</v>
+        <v>0.2774237764659984</v>
       </c>
     </row>
     <row r="9">
@@ -777,37 +777,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2266618923461539</v>
+        <v>0.2404141307388282</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.09818251549562126</v>
+        <v>-0.1108649630770487</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04223014973973765</v>
+        <v>0.04686897793799323</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03524379957931763</v>
+        <v>0.04036997884390937</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1872548741485933</v>
+        <v>-0.1919958065818631</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02461354787274885</v>
+        <v>0.02384017132183621</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04719533452593867</v>
+        <v>0.04922211831063138</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.09811434603447015</v>
+        <v>-0.1100962586465691</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.06153687060257206</v>
+        <v>-0.07509590136447311</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1105345384251093</v>
+        <v>0.1281674556597141</v>
       </c>
     </row>
     <row r="10">
@@ -817,37 +817,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1518445271379984</v>
+        <v>-0.1647399506653904</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4989228884990197</v>
+        <v>0.516338991603269</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1391881796606599</v>
+        <v>-0.1563366399626702</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04334149793730307</v>
+        <v>0.04955333063480253</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09177512660001441</v>
+        <v>0.09624459835032532</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03795736023478147</v>
+        <v>-0.05220627135387298</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.09916551992775477</v>
+        <v>-0.103698342794782</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.09811434603447015</v>
+        <v>-0.1100962586465691</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0967157697193257</v>
+        <v>0.1054395755929265</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1084910534421335</v>
+        <v>-0.119148661185463</v>
       </c>
     </row>
     <row r="11">
@@ -857,37 +857,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05402322780444221</v>
+        <v>-0.050870085872</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1116778017247707</v>
+        <v>0.1230084554100962</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2623308128500093</v>
+        <v>-0.2779357062449836</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002215999330083958</v>
+        <v>0.01072743307583247</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04359086573556677</v>
+        <v>0.03807358625458564</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.150143949375462</v>
+        <v>-0.1584801244511929</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1749774143829428</v>
+        <v>-0.179934843894821</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.06153687060257206</v>
+        <v>-0.07509590136447311</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0967157697193257</v>
+        <v>0.1054395755929265</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.2956732663200876</v>
+        <v>-0.3039817849297376</v>
       </c>
     </row>
     <row r="12">
@@ -897,34 +897,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08131909814433705</v>
+        <v>0.08153572737599171</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1410817724465155</v>
+        <v>-0.1495979406489653</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1685685125777832</v>
+        <v>0.1849532431283435</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01553511874992223</v>
+        <v>-0.02058144507498665</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02693123745069725</v>
+        <v>-0.0283806244469918</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1338084643563329</v>
+        <v>0.1466866568400325</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2701107199482542</v>
+        <v>0.2774237764659984</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1105345384251093</v>
+        <v>0.1281674556597141</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1084910534421335</v>
+        <v>-0.119148661185463</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.2956732663200876</v>
+        <v>-0.3039817849297376</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>

--- a/CaseStudy/Export/Correlation_selectVAR_model1.xlsx
+++ b/CaseStudy/Export/Correlation_selectVAR_model1.xlsx
@@ -500,34 +500,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1659442236438834</v>
+        <v>-0.1625239993632729</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03178008536421172</v>
+        <v>0.03034932294482378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.133243164118091</v>
+        <v>0.1252628789284959</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1588929993566435</v>
+        <v>-0.1605040288970766</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09482163926037128</v>
+        <v>-0.09995119463291788</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.06471908231036332</v>
+        <v>-0.06084151847845858</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2404141307388282</v>
+        <v>0.2427483138624487</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1647399506653904</v>
+        <v>-0.1596361618078241</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.050870085872</v>
+        <v>-0.05455505983836755</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08153572737599171</v>
+        <v>0.08587227291144571</v>
       </c>
     </row>
     <row r="3">
@@ -537,37 +537,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1659442236438834</v>
+        <v>-0.1625239993632729</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1647710451171673</v>
+        <v>-0.1652764414883613</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06749129753345906</v>
+        <v>0.07155001752140763</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08677317706123716</v>
+        <v>0.08318169954040049</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06399826795457395</v>
+        <v>-0.05450870907588182</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.142484839532165</v>
+        <v>-0.1480642479747007</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1108649630770487</v>
+        <v>-0.1067363692665227</v>
       </c>
       <c r="J3" t="n">
-        <v>0.516338991603269</v>
+        <v>0.5195342058528954</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1230084554100962</v>
+        <v>0.1229351664332261</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.1495979406489653</v>
+        <v>-0.1535429869349732</v>
       </c>
     </row>
     <row r="4">
@@ -577,37 +577,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03178008536421172</v>
+        <v>0.03034932294482378</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1647710451171673</v>
+        <v>-0.1652764414883613</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1025703582654419</v>
+        <v>-0.107106122654923</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.08882547027173551</v>
+        <v>-0.08532197024002931</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1433809049780108</v>
+        <v>0.1379330680931256</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2116712719142603</v>
+        <v>0.2123100299950188</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04686897793799323</v>
+        <v>0.04313813038796596</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1563366399626702</v>
+        <v>-0.1524330778905541</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2779357062449836</v>
+        <v>-0.2751239234336399</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1849532431283435</v>
+        <v>0.1797298776755977</v>
       </c>
     </row>
     <row r="5">
@@ -617,37 +617,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.133243164118091</v>
+        <v>0.1252628789284959</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06749129753345906</v>
+        <v>0.07155001752140763</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1025703582654419</v>
+        <v>-0.107106122654923</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.04955528768131017</v>
+        <v>-0.0593406423198977</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08493555240859314</v>
+        <v>-0.08777297298871735</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2386848625694477</v>
+        <v>-0.2414084925065061</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04036997884390937</v>
+        <v>0.04082888771833498</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04955333063480253</v>
+        <v>0.05050445067887077</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01072743307583247</v>
+        <v>0.007827052947800506</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.02058144507498665</v>
+        <v>-0.02273158211910532</v>
       </c>
     </row>
     <row r="6">
@@ -657,37 +657,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1588929993566435</v>
+        <v>-0.1605040288970766</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08677317706123716</v>
+        <v>0.08318169954040049</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.08882547027173551</v>
+        <v>-0.08532197024002931</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04955528768131017</v>
+        <v>-0.0593406423198977</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01851781681925864</v>
+        <v>-0.02128189587790422</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0002792881348068071</v>
+        <v>0.002313369359746511</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1919958065818631</v>
+        <v>-0.1939715910740801</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09624459835032532</v>
+        <v>0.09396031763861029</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03807358625458564</v>
+        <v>0.04488902142332702</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0283806244469918</v>
+        <v>-0.03046516221179131</v>
       </c>
     </row>
     <row r="7">
@@ -697,37 +697,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.09482163926037128</v>
+        <v>-0.09995119463291788</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06399826795457395</v>
+        <v>-0.05450870907588182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1433809049780108</v>
+        <v>0.1379330680931256</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.08493555240859314</v>
+        <v>-0.08777297298871735</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01851781681925864</v>
+        <v>-0.02128189587790422</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1592280812505129</v>
+        <v>0.1581061620943013</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02384017132183621</v>
+        <v>0.02379014056509399</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.05220627135387298</v>
+        <v>-0.04030548155315947</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1584801244511929</v>
+        <v>-0.1577074545228274</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1466866568400325</v>
+        <v>0.1393915103169893</v>
       </c>
     </row>
     <row r="8">
@@ -737,37 +737,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06471908231036332</v>
+        <v>-0.06084151847845858</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.142484839532165</v>
+        <v>-0.1480642479747007</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2116712719142603</v>
+        <v>0.2123100299950188</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2386848625694477</v>
+        <v>-0.2414084925065061</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0002792881348068071</v>
+        <v>0.002313369359746511</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1592280812505129</v>
+        <v>0.1581061620943013</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04922211831063138</v>
+        <v>0.04775404509345622</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.103698342794782</v>
+        <v>-0.1035072310202461</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.179934843894821</v>
+        <v>-0.1820342848792459</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2774237764659984</v>
+        <v>0.2786310469845365</v>
       </c>
     </row>
     <row r="9">
@@ -777,37 +777,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2404141307388282</v>
+        <v>0.2427483138624487</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1108649630770487</v>
+        <v>-0.1067363692665227</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04686897793799323</v>
+        <v>0.04313813038796596</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04036997884390937</v>
+        <v>0.04082888771833498</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1919958065818631</v>
+        <v>-0.1939715910740801</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02384017132183621</v>
+        <v>0.02379014056509399</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04922211831063138</v>
+        <v>0.04775404509345622</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1100962586465691</v>
+        <v>-0.1088731746243381</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.07509590136447311</v>
+        <v>-0.07072663486603732</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1281674556597141</v>
+        <v>0.1271916454228323</v>
       </c>
     </row>
     <row r="10">
@@ -817,37 +817,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1647399506653904</v>
+        <v>-0.1596361618078241</v>
       </c>
       <c r="C10" t="n">
-        <v>0.516338991603269</v>
+        <v>0.5195342058528954</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1563366399626702</v>
+        <v>-0.1524330778905541</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04955333063480253</v>
+        <v>0.05050445067887077</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09624459835032532</v>
+        <v>0.09396031763861029</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05220627135387298</v>
+        <v>-0.04030548155315947</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.103698342794782</v>
+        <v>-0.1035072310202461</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1100962586465691</v>
+        <v>-0.1088731746243381</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1054395755929265</v>
+        <v>0.1051393112083464</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.119148661185463</v>
+        <v>-0.1245972999285731</v>
       </c>
     </row>
     <row r="11">
@@ -857,37 +857,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.050870085872</v>
+        <v>-0.05455505983836755</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1230084554100962</v>
+        <v>0.1229351664332261</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2779357062449836</v>
+        <v>-0.2751239234336399</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01072743307583247</v>
+        <v>0.007827052947800506</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03807358625458564</v>
+        <v>0.04488902142332702</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1584801244511929</v>
+        <v>-0.1577074545228274</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.179934843894821</v>
+        <v>-0.1820342848792459</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.07509590136447311</v>
+        <v>-0.07072663486603732</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1054395755929265</v>
+        <v>0.1051393112083464</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.3039817849297376</v>
+        <v>-0.3062534593909333</v>
       </c>
     </row>
     <row r="12">
@@ -897,34 +897,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08153572737599171</v>
+        <v>0.08587227291144571</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1495979406489653</v>
+        <v>-0.1535429869349732</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1849532431283435</v>
+        <v>0.1797298776755977</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02058144507498665</v>
+        <v>-0.02273158211910532</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0283806244469918</v>
+        <v>-0.03046516221179131</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1466866568400325</v>
+        <v>0.1393915103169893</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2774237764659984</v>
+        <v>0.2786310469845365</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1281674556597141</v>
+        <v>0.1271916454228323</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.119148661185463</v>
+        <v>-0.1245972999285731</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.3039817849297376</v>
+        <v>-0.3062534593909333</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>

--- a/CaseStudy/Export/Correlation_selectVAR_model1.xlsx
+++ b/CaseStudy/Export/Correlation_selectVAR_model1.xlsx
@@ -500,34 +500,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1625239993632729</v>
+        <v>-0.1625239993632733</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03034932294482378</v>
+        <v>0.03034932294482364</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1252628789284959</v>
+        <v>0.1252628789284969</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1605040288970766</v>
+        <v>-0.1605040288970776</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09995119463291788</v>
+        <v>-0.09995119463291893</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.06084151847845858</v>
+        <v>-0.06084151847845793</v>
       </c>
       <c r="I2" t="n">
         <v>0.2427483138624487</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1596361618078241</v>
+        <v>-0.1596361618078227</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.05455505983836755</v>
+        <v>-0.05455505983836772</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08587227291144571</v>
+        <v>0.08587227291144699</v>
       </c>
     </row>
     <row r="3">
@@ -537,37 +537,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1625239993632729</v>
+        <v>-0.1625239993632733</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1652764414883613</v>
+        <v>-0.165276441488361</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07155001752140763</v>
+        <v>0.07155001752140766</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08318169954040049</v>
+        <v>0.08318169954040036</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05450870907588182</v>
+        <v>-0.05450870907588181</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1480642479747007</v>
+        <v>-0.1480642479746999</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1067363692665227</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5195342058528954</v>
+        <v>0.5195342058528897</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1229351664332261</v>
+        <v>0.1229351664332254</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.1535429869349732</v>
+        <v>-0.1535429869349723</v>
       </c>
     </row>
     <row r="4">
@@ -577,37 +577,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03034932294482378</v>
+        <v>0.03034932294482364</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1652764414883613</v>
+        <v>-0.165276441488361</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.107106122654923</v>
+        <v>-0.1071061226549231</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.08532197024002931</v>
+        <v>-0.08532197024002959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1379330680931256</v>
+        <v>0.1379330680931269</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2123100299950188</v>
+        <v>0.2123100299950187</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04313813038796596</v>
+        <v>0.04313813038796618</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1524330778905541</v>
+        <v>-0.1524330778905546</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2751239234336399</v>
+        <v>-0.2751239234336396</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1797298776755977</v>
+        <v>0.1797298776755971</v>
       </c>
     </row>
     <row r="5">
@@ -617,37 +617,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1252628789284959</v>
+        <v>0.1252628789284969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07155001752140763</v>
+        <v>0.07155001752140766</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.107106122654923</v>
+        <v>-0.1071061226549231</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0593406423198977</v>
+        <v>-0.05934064231989732</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08777297298871735</v>
+        <v>-0.08777297298871775</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2414084925065061</v>
+        <v>-0.2414084925065049</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04082888771833498</v>
+        <v>0.04082888771833506</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05050445067887077</v>
+        <v>0.05050445067887072</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007827052947800506</v>
+        <v>0.007827052947800521</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.02273158211910532</v>
+        <v>-0.02273158211910513</v>
       </c>
     </row>
     <row r="6">
@@ -657,37 +657,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1605040288970766</v>
+        <v>-0.1605040288970776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08318169954040049</v>
+        <v>0.08318169954040036</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.08532197024002931</v>
+        <v>-0.08532197024002959</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0593406423198977</v>
+        <v>-0.05934064231989732</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02128189587790422</v>
+        <v>-0.0212818958779036</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002313369359746511</v>
+        <v>0.002313369359745722</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1939715910740801</v>
+        <v>-0.1939715910740814</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09396031763861029</v>
+        <v>0.09396031763861089</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04488902142332702</v>
+        <v>0.04488902142332674</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.03046516221179131</v>
+        <v>-0.03046516221179166</v>
       </c>
     </row>
     <row r="7">
@@ -697,37 +697,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.09995119463291788</v>
+        <v>-0.09995119463291893</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.05450870907588182</v>
+        <v>-0.05450870907588181</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1379330680931256</v>
+        <v>0.1379330680931269</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.08777297298871735</v>
+        <v>-0.08777297298871775</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02128189587790422</v>
+        <v>-0.0212818958779036</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1581061620943013</v>
+        <v>0.1581061620943031</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02379014056509399</v>
+        <v>0.02379014056509452</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.04030548155315947</v>
+        <v>-0.04030548155315927</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1577074545228274</v>
+        <v>-0.1577074545228276</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1393915103169893</v>
+        <v>0.1393915103169885</v>
       </c>
     </row>
     <row r="8">
@@ -737,37 +737,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06084151847845858</v>
+        <v>-0.06084151847845793</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1480642479747007</v>
+        <v>-0.1480642479746999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2123100299950188</v>
+        <v>0.2123100299950187</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2414084925065061</v>
+        <v>-0.2414084925065049</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002313369359746511</v>
+        <v>0.002313369359745722</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1581061620943013</v>
+        <v>0.1581061620943031</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04775404509345622</v>
+        <v>0.04775404509345558</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1035072310202461</v>
+        <v>-0.1035072310202472</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1820342848792459</v>
+        <v>-0.1820342848792453</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2786310469845365</v>
+        <v>0.2786310469845378</v>
       </c>
     </row>
     <row r="9">
@@ -783,31 +783,31 @@
         <v>-0.1067363692665227</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04313813038796596</v>
+        <v>0.04313813038796618</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04082888771833498</v>
+        <v>0.04082888771833506</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1939715910740801</v>
+        <v>-0.1939715910740814</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02379014056509399</v>
+        <v>0.02379014056509452</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04775404509345622</v>
+        <v>0.04775404509345558</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1088731746243381</v>
+        <v>-0.1088731746243394</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.07072663486603732</v>
+        <v>-0.0707266348660376</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1271916454228323</v>
+        <v>0.1271916454228331</v>
       </c>
     </row>
     <row r="10">
@@ -817,37 +817,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1596361618078241</v>
+        <v>-0.1596361618078227</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5195342058528954</v>
+        <v>0.5195342058528897</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1524330778905541</v>
+        <v>-0.1524330778905546</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05050445067887077</v>
+        <v>0.05050445067887072</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09396031763861029</v>
+        <v>0.09396031763861089</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04030548155315947</v>
+        <v>-0.04030548155315927</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1035072310202461</v>
+        <v>-0.1035072310202472</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1088731746243381</v>
+        <v>-0.1088731746243394</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1051393112083464</v>
+        <v>0.1051393112083459</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1245972999285731</v>
+        <v>-0.1245972999285728</v>
       </c>
     </row>
     <row r="11">
@@ -857,37 +857,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05455505983836755</v>
+        <v>-0.05455505983836772</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1229351664332261</v>
+        <v>0.1229351664332254</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2751239234336399</v>
+        <v>-0.2751239234336396</v>
       </c>
       <c r="E11" t="n">
-        <v>0.007827052947800506</v>
+        <v>0.007827052947800521</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04488902142332702</v>
+        <v>0.04488902142332674</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1577074545228274</v>
+        <v>-0.1577074545228276</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1820342848792459</v>
+        <v>-0.1820342848792453</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.07072663486603732</v>
+        <v>-0.0707266348660376</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1051393112083464</v>
+        <v>0.1051393112083459</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.3062534593909333</v>
+        <v>-0.3062534593909318</v>
       </c>
     </row>
     <row r="12">
@@ -897,34 +897,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08587227291144571</v>
+        <v>0.08587227291144699</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1535429869349732</v>
+        <v>-0.1535429869349723</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1797298776755977</v>
+        <v>0.1797298776755971</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02273158211910532</v>
+        <v>-0.02273158211910513</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03046516221179131</v>
+        <v>-0.03046516221179166</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1393915103169893</v>
+        <v>0.1393915103169885</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2786310469845365</v>
+        <v>0.2786310469845378</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1271916454228323</v>
+        <v>0.1271916454228331</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1245972999285731</v>
+        <v>-0.1245972999285728</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.3062534593909333</v>
+        <v>-0.3062534593909318</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
